--- a/biology/Médecine/Foramen_sphéno-temporal/Foramen_sphéno-temporal.xlsx
+++ b/biology/Médecine/Foramen_sphéno-temporal/Foramen_sphéno-temporal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foramen_sph%C3%A9no-temporal</t>
+          <t>Foramen_sphéno-temporal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen sphéno-temporal est une perforation inconstante de la base du crâne. 
 Il se situe sur la suture qui unit la partie pétreuse de l'os temporal et la grande aile de l'os sphénoïde.
